--- a/public/assets/template/template001.xlsx
+++ b/public/assets/template/template001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anisa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B37529D-8DC9-433C-AF99-5D89FBD3D6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96926E44-4B3C-414F-8D14-AEF91DF8626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F10FAC9E-B391-42D5-91C2-9705144F9B3C}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>Materi</t>
   </si>
   <si>
-    <t>DATA ABSENSI DAN LAPORAN MENGAJAR TRAINER  SUKAROBOT ACADEMY</t>
-  </si>
-  <si>
     <t>Nama Siswa</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Program</t>
+  </si>
+  <si>
+    <t>DATA ABSENSI DAN LAPORAN MENGAJAR TRAINER  SUKAROBOT ACADEMY BARU</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85D66D4-826E-4CEC-A4AA-5A557738BEA6}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +774,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -912,13 +912,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>1</v>
